--- a/bj1902周测.xlsx
+++ b/bj1902周测.xlsx
@@ -287,6 +287,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -315,6 +316,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -410,7 +412,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -450,6 +452,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.00851063829787"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -978,6 +983,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.00851063829787"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1530,6 +1538,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.00851063829787"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2059,18 +2070,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F65536"/>
+  <dimension ref="A1:G65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G61" activeCellId="0" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.78297872340426"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.23404255319149"/>
     <col collapsed="false" hidden="true" max="2" min="2" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.1446808510638"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="10.5829787234043"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.7106382978723"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="11.1446808510638"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.00851063829787"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2112,6 +2124,10 @@
       <c r="F2" s="1" t="n">
         <v>96</v>
       </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">F2-E2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -2132,8 +2148,12 @@
       <c r="F3" s="1" t="n">
         <v>94</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="0" t="n">
+        <f aca="false">F3-E3</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -2151,6 +2171,10 @@
       </c>
       <c r="F4" s="1" t="n">
         <v>94</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">F4-E4</f>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2172,6 +2196,10 @@
       <c r="F5" s="1" t="n">
         <v>92</v>
       </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">F5-E5</f>
+        <v>-2</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
@@ -2192,6 +2220,10 @@
       <c r="F6" s="1" t="n">
         <v>92</v>
       </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">F6-E6</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
@@ -2212,6 +2244,10 @@
       <c r="F7" s="1" t="n">
         <v>92</v>
       </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">F7-E7</f>
+        <v>14</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
@@ -2232,6 +2268,10 @@
       <c r="F8" s="1" t="n">
         <v>92</v>
       </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">F8-E8</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
@@ -2252,6 +2292,10 @@
       <c r="F9" s="1" t="n">
         <v>90</v>
       </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">F9-E9</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
@@ -2272,6 +2316,10 @@
       <c r="F10" s="1" t="n">
         <v>88</v>
       </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">F10-E10</f>
+        <v>-2</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
@@ -2292,6 +2340,10 @@
       <c r="F11" s="1" t="n">
         <v>88</v>
       </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">F11-E11</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
@@ -2312,6 +2364,10 @@
       <c r="F12" s="1" t="n">
         <v>88</v>
       </c>
+      <c r="G12" s="0" t="n">
+        <f aca="false">F12-E12</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
@@ -2332,6 +2388,10 @@
       <c r="F13" s="1" t="n">
         <v>88</v>
       </c>
+      <c r="G13" s="0" t="n">
+        <f aca="false">F13-E13</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
@@ -2352,6 +2412,10 @@
       <c r="F14" s="1" t="n">
         <v>88</v>
       </c>
+      <c r="G14" s="0" t="n">
+        <f aca="false">F14-E14</f>
+        <v>18</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
@@ -2372,6 +2436,10 @@
       <c r="F15" s="1" t="n">
         <v>86</v>
       </c>
+      <c r="G15" s="0" t="n">
+        <f aca="false">F15-E15</f>
+        <v>-9</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
@@ -2392,6 +2460,10 @@
       <c r="F16" s="1" t="n">
         <v>86</v>
       </c>
+      <c r="G16" s="0" t="n">
+        <f aca="false">F16-E16</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
@@ -2412,6 +2484,10 @@
       <c r="F17" s="1" t="n">
         <v>86</v>
       </c>
+      <c r="G17" s="0" t="n">
+        <f aca="false">F17-E17</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
@@ -2432,6 +2508,10 @@
       <c r="F18" s="1" t="n">
         <v>84</v>
       </c>
+      <c r="G18" s="0" t="n">
+        <f aca="false">F18-E18</f>
+        <v>-4</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
@@ -2452,6 +2532,10 @@
       <c r="F19" s="1" t="n">
         <v>84</v>
       </c>
+      <c r="G19" s="0" t="n">
+        <f aca="false">F19-E19</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
@@ -2472,8 +2556,12 @@
       <c r="F20" s="1" t="n">
         <v>84</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="0" t="n">
+        <f aca="false">F20-E20</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
@@ -2512,6 +2600,10 @@
       <c r="F22" s="1" t="n">
         <v>82</v>
       </c>
+      <c r="G22" s="0" t="n">
+        <f aca="false">F22-E22</f>
+        <v>-8</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
@@ -2532,6 +2624,10 @@
       <c r="F23" s="1" t="n">
         <v>82</v>
       </c>
+      <c r="G23" s="0" t="n">
+        <f aca="false">F23-E23</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
@@ -2552,6 +2648,10 @@
       <c r="F24" s="1" t="n">
         <v>82</v>
       </c>
+      <c r="G24" s="0" t="n">
+        <f aca="false">F24-E24</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
@@ -2572,6 +2672,10 @@
       <c r="F25" s="1" t="n">
         <v>82</v>
       </c>
+      <c r="G25" s="0" t="n">
+        <f aca="false">F25-E25</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
@@ -2592,6 +2696,10 @@
       <c r="F26" s="1" t="n">
         <v>82</v>
       </c>
+      <c r="G26" s="0" t="n">
+        <f aca="false">F26-E26</f>
+        <v>19</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
@@ -2612,6 +2720,10 @@
       <c r="F27" s="1" t="n">
         <v>82</v>
       </c>
+      <c r="G27" s="0" t="n">
+        <f aca="false">F27-E27</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
@@ -2632,6 +2744,10 @@
       <c r="F28" s="1" t="n">
         <v>80</v>
       </c>
+      <c r="G28" s="0" t="n">
+        <f aca="false">F28-E28</f>
+        <v>-2</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
@@ -2652,6 +2768,10 @@
       <c r="F29" s="1" t="n">
         <v>80</v>
       </c>
+      <c r="G29" s="0" t="n">
+        <f aca="false">F29-E29</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
@@ -2672,11 +2792,19 @@
       <c r="F30" s="1" t="n">
         <v>80</v>
       </c>
+      <c r="G30" s="0" t="n">
+        <f aca="false">F30-E30</f>
+        <v>14</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
       <c r="F31" s="1" t="n">
         <v>80</v>
       </c>
@@ -2700,11 +2828,19 @@
       <c r="F32" s="1" t="n">
         <v>78</v>
       </c>
+      <c r="G32" s="0" t="n">
+        <f aca="false">F32-E32</f>
+        <v>-12</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
         <v>78</v>
       </c>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
       <c r="F33" s="1" t="n">
         <v>78</v>
       </c>
@@ -2728,8 +2864,12 @@
       <c r="F34" s="1" t="n">
         <v>76</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G34" s="0" t="n">
+        <f aca="false">F34-E34</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
         <v>13</v>
       </c>
@@ -2747,6 +2887,10 @@
       </c>
       <c r="F35" s="1" t="n">
         <v>76</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <f aca="false">F35-E35</f>
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2768,6 +2912,10 @@
       <c r="F36" s="1" t="n">
         <v>76</v>
       </c>
+      <c r="G36" s="0" t="n">
+        <f aca="false">F36-E36</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
@@ -2788,6 +2936,10 @@
       <c r="F37" s="1" t="n">
         <v>74</v>
       </c>
+      <c r="G37" s="0" t="n">
+        <f aca="false">F37-E37</f>
+        <v>-8</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
@@ -2808,8 +2960,12 @@
       <c r="F38" s="1" t="n">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G38" s="0" t="n">
+        <f aca="false">F38-E38</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
         <v>67</v>
       </c>
@@ -2827,6 +2983,10 @@
       </c>
       <c r="F39" s="1" t="n">
         <v>74</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <f aca="false">F39-E39</f>
+        <v>-2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2848,6 +3008,10 @@
       <c r="F40" s="1" t="n">
         <v>74</v>
       </c>
+      <c r="G40" s="0" t="n">
+        <f aca="false">F40-E40</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
@@ -2868,6 +3032,10 @@
       <c r="F41" s="1" t="n">
         <v>72</v>
       </c>
+      <c r="G41" s="0" t="n">
+        <f aca="false">F41-E41</f>
+        <v>-7</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
@@ -2888,6 +3056,10 @@
       <c r="F42" s="1" t="n">
         <v>72</v>
       </c>
+      <c r="G42" s="0" t="n">
+        <f aca="false">F42-E42</f>
+        <v>-3</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
@@ -2908,6 +3080,10 @@
       <c r="F43" s="1" t="n">
         <v>72</v>
       </c>
+      <c r="G43" s="0" t="n">
+        <f aca="false">F43-E43</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
@@ -2928,6 +3104,10 @@
       <c r="F44" s="1" t="n">
         <v>68</v>
       </c>
+      <c r="G44" s="0" t="n">
+        <f aca="false">F44-E44</f>
+        <v>-2</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
@@ -2948,11 +3128,19 @@
       <c r="F45" s="1" t="n">
         <v>68</v>
       </c>
+      <c r="G45" s="0" t="n">
+        <f aca="false">F45-E45</f>
+        <v>-5</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
         <v>80</v>
       </c>
+      <c r="B46" s="0"/>
+      <c r="C46" s="0"/>
+      <c r="D46" s="0"/>
+      <c r="E46" s="0"/>
       <c r="F46" s="1" t="n">
         <v>68</v>
       </c>
@@ -2976,6 +3164,10 @@
       <c r="F47" s="1" t="n">
         <v>66</v>
       </c>
+      <c r="G47" s="0" t="n">
+        <f aca="false">F47-E47</f>
+        <v>-10</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
@@ -2996,6 +3188,10 @@
       <c r="F48" s="1" t="n">
         <v>66</v>
       </c>
+      <c r="G48" s="0" t="n">
+        <f aca="false">F48-E48</f>
+        <v>-9</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
@@ -3016,6 +3212,10 @@
       <c r="F49" s="1" t="n">
         <v>64</v>
       </c>
+      <c r="G49" s="0" t="n">
+        <f aca="false">F49-E49</f>
+        <v>-15</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
@@ -3036,6 +3236,10 @@
       <c r="F50" s="1" t="n">
         <v>64</v>
       </c>
+      <c r="G50" s="0" t="n">
+        <f aca="false">F50-E50</f>
+        <v>-16</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
@@ -3056,6 +3260,10 @@
       <c r="F51" s="1" t="n">
         <v>64</v>
       </c>
+      <c r="G51" s="0" t="n">
+        <f aca="false">F51-E51</f>
+        <v>-11</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
@@ -3076,6 +3284,10 @@
       <c r="F52" s="1" t="n">
         <v>64</v>
       </c>
+      <c r="G52" s="0" t="n">
+        <f aca="false">F52-E52</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
@@ -3096,6 +3308,10 @@
       <c r="F53" s="1" t="n">
         <v>62</v>
       </c>
+      <c r="G53" s="0" t="n">
+        <f aca="false">F53-E53</f>
+        <v>-3</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
@@ -3116,109 +3332,137 @@
       <c r="F54" s="1" t="n">
         <v>60</v>
       </c>
+      <c r="G54" s="0" t="n">
+        <f aca="false">F54-E54</f>
+        <v>-3</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <f aca="false">F55-E55</f>
+        <v>-28</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="C56" s="0"/>
+        <v>94</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>91</v>
+      </c>
       <c r="D56" s="1" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="F56" s="1" t="n">
         <v>58</v>
       </c>
+      <c r="G56" s="0" t="n">
+        <f aca="false">F56-E56</f>
+        <v>-22</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5" t="s">
-        <v>81</v>
+      <c r="A57" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="C57" s="0"/>
+      <c r="D57" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="E57" s="1" t="n">
+        <v>61</v>
       </c>
       <c r="F57" s="1" t="n">
         <v>58</v>
       </c>
+      <c r="G57" s="0" t="n">
+        <f aca="false">F57-E57</f>
+        <v>-3</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="C58" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="D58" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="E58" s="1" t="n">
-        <v>77</v>
-      </c>
+      <c r="A58" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" s="0"/>
+      <c r="C58" s="0"/>
+      <c r="D58" s="0"/>
+      <c r="E58" s="0"/>
       <c r="F58" s="1" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B59" s="0"/>
+        <v>55</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>90</v>
+      </c>
       <c r="C59" s="2" t="n">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F59" s="1" t="n">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <f aca="false">F59-E59</f>
+        <v>-21</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B60" s="0"/>
+      <c r="C60" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="D60" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="C60" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="D60" s="1" t="n">
-        <v>93</v>
-      </c>
       <c r="E60" s="1" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F60" s="1" t="n">
-        <v>36</v>
+        <v>54</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <f aca="false">F60-E60</f>
+        <v>-29</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3240,6 +3484,10 @@
       <c r="F61" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="G61" s="0" t="n">
+        <f aca="false">F61-E61</f>
+        <v>-29</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
@@ -3259,7 +3507,7 @@
       </c>
       <c r="F62" s="8"/>
     </row>
-    <row r="63" customFormat="false" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
         <v>69</v>
       </c>
@@ -3277,6 +3525,7 @@
         <v>79</v>
       </c>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/bj1902周测.xlsx
+++ b/bj1902周测.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/百度云同步盘/python/bj1902/周测/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="989" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="19440" windowHeight="12240" tabRatio="989" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="第二周" sheetId="1" state="hidden" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="第四周" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="87">
   <si>
     <t>姓名</t>
   </si>
@@ -307,12 +302,38 @@
     </rPh>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>董文剑</t>
+    <rPh sb="0" eb="1">
+      <t>dong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wen</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七周</t>
+    <rPh sb="0" eb="1">
+      <t>di</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhou</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -370,6 +391,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -405,7 +433,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -428,6 +456,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -700,7 +735,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -714,9 +749,9 @@
       <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -724,7 +759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -732,7 +767,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -740,7 +775,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -748,7 +783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -756,7 +791,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -764,7 +799,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -772,7 +807,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -780,7 +815,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -788,7 +823,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -796,7 +831,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -804,7 +839,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -812,7 +847,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -820,7 +855,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -828,7 +863,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -836,7 +871,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -844,7 +879,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -852,7 +887,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -860,7 +895,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -868,7 +903,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
@@ -876,7 +911,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
@@ -884,7 +919,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
@@ -892,7 +927,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
@@ -900,7 +935,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
@@ -908,7 +943,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
@@ -916,7 +951,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
@@ -924,7 +959,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
@@ -932,7 +967,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
@@ -940,7 +975,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
@@ -948,7 +983,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
@@ -956,7 +991,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
@@ -964,7 +999,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
@@ -972,7 +1007,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
@@ -980,7 +1015,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
         <v>34</v>
       </c>
@@ -988,7 +1023,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
         <v>35</v>
       </c>
@@ -996,7 +1031,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
         <v>36</v>
       </c>
@@ -1004,7 +1039,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
@@ -1012,7 +1047,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>38</v>
       </c>
@@ -1020,7 +1055,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
         <v>39</v>
       </c>
@@ -1028,7 +1063,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
         <v>40</v>
       </c>
@@ -1036,7 +1071,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
         <v>41</v>
       </c>
@@ -1044,7 +1079,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
@@ -1052,7 +1087,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
         <v>43</v>
       </c>
@@ -1060,7 +1095,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
         <v>44</v>
       </c>
@@ -1068,7 +1103,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" s="3" t="s">
         <v>45</v>
       </c>
@@ -1076,7 +1111,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" s="3" t="s">
         <v>46</v>
       </c>
@@ -1084,7 +1119,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" s="3" t="s">
         <v>47</v>
       </c>
@@ -1092,7 +1127,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" s="3" t="s">
         <v>48</v>
       </c>
@@ -1100,7 +1135,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>49</v>
       </c>
@@ -1108,7 +1143,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
         <v>50</v>
       </c>
@@ -1116,7 +1151,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" s="3" t="s">
         <v>51</v>
       </c>
@@ -1124,7 +1159,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" s="3" t="s">
         <v>52</v>
       </c>
@@ -1132,7 +1167,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>53</v>
       </c>
@@ -1140,7 +1175,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>54</v>
       </c>
@@ -1148,7 +1183,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
         <v>55</v>
       </c>
@@ -1156,7 +1191,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
         <v>56</v>
       </c>
@@ -1164,7 +1199,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" s="3" t="s">
         <v>57</v>
       </c>
@@ -1172,7 +1207,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" s="3" t="s">
         <v>58</v>
       </c>
@@ -1180,7 +1215,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" s="3" t="s">
         <v>59</v>
       </c>
@@ -1188,7 +1223,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" s="3" t="s">
         <v>60</v>
       </c>
@@ -1196,7 +1231,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -1204,7 +1239,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" s="3" t="s">
         <v>62</v>
       </c>
@@ -1212,7 +1247,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" s="3" t="s">
         <v>63</v>
       </c>
@@ -1235,9 +1270,9 @@
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1245,7 +1280,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1253,7 +1288,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1261,7 +1296,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1269,7 +1304,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1277,7 +1312,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1285,7 +1320,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1293,7 +1328,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1301,7 +1336,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -1309,7 +1344,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1317,7 +1352,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -1325,7 +1360,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1333,7 +1368,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1341,7 +1376,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1349,7 +1384,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1357,7 +1392,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -1365,7 +1400,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1373,7 +1408,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1381,7 +1416,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1389,7 +1424,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -1397,7 +1432,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1405,7 +1440,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1413,7 +1448,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1421,7 +1456,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1429,7 +1464,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1437,7 +1472,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1445,7 +1480,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -1453,7 +1488,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1461,7 +1496,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1469,7 +1504,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -1477,7 +1512,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1485,7 +1520,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -1493,7 +1528,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1501,7 +1536,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -1509,7 +1544,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1517,7 +1552,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -1525,7 +1560,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -1533,7 +1568,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1541,7 +1576,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1549,7 +1584,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -1557,7 +1592,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -1565,7 +1600,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -1573,7 +1608,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -1581,7 +1616,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1589,7 +1624,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -1597,7 +1632,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -1605,7 +1640,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -1613,7 +1648,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -1621,7 +1656,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -1629,7 +1664,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -1637,7 +1672,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -1645,7 +1680,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -1653,7 +1688,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>34</v>
       </c>
@@ -1661,7 +1696,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -1669,7 +1704,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -1677,7 +1712,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -1685,7 +1720,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -1693,7 +1728,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -1701,7 +1736,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -1709,7 +1744,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -1717,7 +1752,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -1725,7 +1760,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -1733,7 +1768,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>56</v>
       </c>
@@ -1741,7 +1776,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>26</v>
       </c>
@@ -1749,7 +1784,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -1757,7 +1792,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>50</v>
       </c>
@@ -1780,9 +1815,9 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1790,7 +1825,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1798,7 +1833,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1806,7 +1841,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1814,7 +1849,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1822,7 +1857,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1830,7 +1865,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1838,7 +1873,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1846,7 +1881,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1854,7 +1889,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1862,7 +1897,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1870,7 +1905,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1878,7 +1913,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1886,7 +1921,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1894,7 +1929,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1902,7 +1937,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1910,7 +1945,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1918,7 +1953,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1926,7 +1961,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1934,7 +1969,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -1942,7 +1977,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1950,7 +1985,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1958,7 +1993,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -1966,7 +2001,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -1974,7 +2009,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1982,7 +2017,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1990,7 +2025,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1998,7 +2033,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -2006,7 +2041,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -2014,7 +2049,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -2022,7 +2057,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -2030,7 +2065,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -2038,7 +2073,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -2046,7 +2081,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -2054,7 +2089,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2062,7 +2097,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2070,7 +2105,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -2078,7 +2113,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -2086,7 +2121,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -2094,7 +2129,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -2102,7 +2137,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -2110,7 +2145,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -2118,7 +2153,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -2126,7 +2161,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -2134,7 +2169,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -2142,7 +2177,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -2150,7 +2185,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -2158,7 +2193,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -2166,7 +2201,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -2174,7 +2209,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>15</v>
       </c>
@@ -2182,7 +2217,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -2190,7 +2225,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -2198,7 +2233,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -2206,7 +2241,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -2214,7 +2249,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -2222,7 +2257,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -2230,7 +2265,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -2238,7 +2273,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -2246,7 +2281,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -2254,7 +2289,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -2262,7 +2297,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -2270,7 +2305,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -2278,7 +2313,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>54</v>
       </c>
@@ -2286,7 +2321,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>26</v>
       </c>
@@ -2303,22 +2338,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="Q58" sqref="Q58"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="0" style="1" hidden="1"/>
-    <col min="3" max="3" width="8.83203125" style="2"/>
-    <col min="4" max="6" width="8.83203125" style="1"/>
-    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="2"/>
+    <col min="4" max="6" width="8.875" style="1"/>
+    <col min="7" max="7" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2337,11 +2373,14 @@
       <c r="F1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="10" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2363,535 +2402,609 @@
       <c r="G2" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="13">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2">
+        <v>86</v>
+      </c>
+      <c r="D3" s="1">
         <v>94</v>
       </c>
-      <c r="D3" s="1">
-        <v>89</v>
-      </c>
       <c r="E3" s="1">
+        <v>79</v>
+      </c>
+      <c r="F3" s="1">
+        <v>86</v>
+      </c>
+      <c r="G3" s="1">
+        <v>68</v>
+      </c>
+      <c r="H3" s="13">
         <v>98</v>
       </c>
-      <c r="F3" s="1">
-        <v>94</v>
-      </c>
-      <c r="G3" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1">
         <v>100</v>
       </c>
-      <c r="C4" s="2">
-        <v>91</v>
+      <c r="C4" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="D4" s="1">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E4" s="1">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F4" s="1">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="G4" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="H4" s="13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>100</v>
       </c>
       <c r="C5" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E5" s="1">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="F5" s="1">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="G5" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="13">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
+        <v>92</v>
+      </c>
+      <c r="C6" s="2">
+        <v>95</v>
+      </c>
+      <c r="D6" s="1">
+        <v>90</v>
+      </c>
+      <c r="E6" s="1">
+        <v>82</v>
+      </c>
+      <c r="F6" s="1">
+        <v>92</v>
+      </c>
+      <c r="G6" s="1">
+        <v>90</v>
+      </c>
+      <c r="H6" s="13">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1">
+        <v>97</v>
+      </c>
+      <c r="C7" s="2">
+        <v>80</v>
+      </c>
+      <c r="D7" s="1">
+        <v>95</v>
+      </c>
+      <c r="E7" s="1">
+        <v>80</v>
+      </c>
+      <c r="F7" s="1">
+        <v>76</v>
+      </c>
+      <c r="G7" s="1">
+        <v>92</v>
+      </c>
+      <c r="H7" s="13">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1">
         <v>100</v>
       </c>
-      <c r="C6" s="2">
-        <v>87</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C8" s="2">
+        <v>80</v>
+      </c>
+      <c r="D8" s="1">
+        <v>75</v>
+      </c>
+      <c r="E8" s="1">
+        <v>71</v>
+      </c>
+      <c r="F8" s="1">
+        <v>72</v>
+      </c>
+      <c r="G8" s="1">
+        <v>88</v>
+      </c>
+      <c r="H8" s="13">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="1">
+        <v>100</v>
+      </c>
+      <c r="C9" s="2">
+        <v>77</v>
+      </c>
+      <c r="D9" s="1">
+        <v>98</v>
+      </c>
+      <c r="E9" s="1">
+        <v>82</v>
+      </c>
+      <c r="F9" s="1">
+        <v>80</v>
+      </c>
+      <c r="G9" s="1">
+        <v>82</v>
+      </c>
+      <c r="H9" s="13">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="1">
         <v>95</v>
       </c>
-      <c r="E6" s="1">
+      <c r="C10" s="2">
+        <v>73</v>
+      </c>
+      <c r="D10" s="1">
+        <v>90</v>
+      </c>
+      <c r="E10" s="1">
+        <v>69</v>
+      </c>
+      <c r="F10" s="1">
+        <v>82</v>
+      </c>
+      <c r="G10" s="1">
+        <v>80</v>
+      </c>
+      <c r="H10" s="13">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>100</v>
+      </c>
+      <c r="C11" s="2">
+        <v>100</v>
+      </c>
+      <c r="D11" s="1">
+        <v>100</v>
+      </c>
+      <c r="E11" s="1">
+        <v>95</v>
+      </c>
+      <c r="F11" s="1">
+        <v>86</v>
+      </c>
+      <c r="G11" s="1">
+        <v>94</v>
+      </c>
+      <c r="H11" s="13">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1">
+        <v>97</v>
+      </c>
+      <c r="C12" s="2">
+        <v>83</v>
+      </c>
+      <c r="D12" s="1">
+        <v>98</v>
+      </c>
+      <c r="E12" s="1">
+        <v>90</v>
+      </c>
+      <c r="F12" s="1">
+        <v>82</v>
+      </c>
+      <c r="G12" s="1">
+        <v>94</v>
+      </c>
+      <c r="H12" s="13">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1">
+        <v>85</v>
+      </c>
+      <c r="C13" s="2">
+        <v>91</v>
+      </c>
+      <c r="D13" s="1">
+        <v>82</v>
+      </c>
+      <c r="E13" s="1">
+        <v>78</v>
+      </c>
+      <c r="F13" s="1">
+        <v>92</v>
+      </c>
+      <c r="G13" s="1">
+        <v>80</v>
+      </c>
+      <c r="H13" s="13">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="1">
+        <v>90</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="1">
         <v>84</v>
       </c>
-      <c r="F6" s="1">
+      <c r="E14" s="1">
+        <v>80</v>
+      </c>
+      <c r="F14" s="1">
+        <v>94</v>
+      </c>
+      <c r="G14" s="1">
+        <v>78</v>
+      </c>
+      <c r="H14" s="13">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1">
+        <v>100</v>
+      </c>
+      <c r="C15" s="2">
+        <v>94</v>
+      </c>
+      <c r="D15" s="1">
+        <v>100</v>
+      </c>
+      <c r="E15" s="1">
+        <v>90</v>
+      </c>
+      <c r="F15" s="1">
         <v>88</v>
       </c>
-      <c r="G6" s="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="G15" s="1">
+        <v>90</v>
+      </c>
+      <c r="H15" s="13">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1">
         <v>100</v>
       </c>
-      <c r="C7" s="2">
-        <v>100</v>
-      </c>
-      <c r="D7" s="1">
-        <v>100</v>
-      </c>
-      <c r="E7" s="1">
-        <v>95</v>
-      </c>
-      <c r="F7" s="1">
-        <v>86</v>
-      </c>
-      <c r="G7" s="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="1">
-        <v>97</v>
-      </c>
-      <c r="C8" s="2">
-        <v>83</v>
-      </c>
-      <c r="D8" s="1">
-        <v>98</v>
-      </c>
-      <c r="E8" s="1">
-        <v>90</v>
-      </c>
-      <c r="F8" s="1">
-        <v>82</v>
-      </c>
-      <c r="G8" s="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="1">
-        <v>95</v>
-      </c>
-      <c r="C9" s="2">
-        <v>89</v>
-      </c>
-      <c r="D9" s="1">
-        <v>90</v>
-      </c>
-      <c r="E9" s="1">
-        <v>94</v>
-      </c>
-      <c r="F9" s="1">
-        <v>92</v>
-      </c>
-      <c r="G9" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1">
-        <v>85</v>
-      </c>
-      <c r="C10" s="2">
-        <v>90</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C16" s="2">
         <v>84</v>
       </c>
-      <c r="E10" s="1">
-        <v>64</v>
-      </c>
-      <c r="F10" s="1">
-        <v>92</v>
-      </c>
-      <c r="G10" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="6">
-        <v>75</v>
-      </c>
-      <c r="C11" s="2">
-        <v>85</v>
-      </c>
-      <c r="D11" s="1">
-        <v>90</v>
-      </c>
-      <c r="E11" s="1">
-        <v>70</v>
-      </c>
-      <c r="F11" s="1">
-        <v>88</v>
-      </c>
-      <c r="G11" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1">
-        <v>100</v>
-      </c>
-      <c r="C12" s="2">
-        <v>87</v>
-      </c>
-      <c r="D12" s="1">
-        <v>94</v>
-      </c>
-      <c r="E12" s="1">
-        <v>83</v>
-      </c>
-      <c r="F12" s="1">
-        <v>84</v>
-      </c>
-      <c r="G12" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="1">
-        <v>97</v>
-      </c>
-      <c r="C13" s="2">
-        <v>80</v>
-      </c>
-      <c r="D13" s="1">
-        <v>95</v>
-      </c>
-      <c r="E13" s="1">
-        <v>80</v>
-      </c>
-      <c r="F13" s="1">
-        <v>76</v>
-      </c>
-      <c r="G13" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14"/>
-      <c r="C14" s="2">
-        <v>92</v>
-      </c>
-      <c r="D14" s="1">
-        <v>100</v>
-      </c>
-      <c r="E14" s="1">
-        <v>83</v>
-      </c>
-      <c r="F14" s="1">
-        <v>54</v>
-      </c>
-      <c r="G14" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1">
-        <v>92</v>
-      </c>
-      <c r="C15" s="2">
-        <v>95</v>
-      </c>
-      <c r="D15" s="1">
-        <v>90</v>
-      </c>
-      <c r="E15" s="1">
-        <v>82</v>
-      </c>
-      <c r="F15" s="1">
-        <v>92</v>
-      </c>
-      <c r="G15" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1">
-        <v>85</v>
-      </c>
-      <c r="C16" s="2">
-        <v>91</v>
-      </c>
       <c r="D16" s="1">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E16" s="1">
         <v>88</v>
       </c>
       <c r="F16" s="1">
-        <v>90</v>
-      </c>
-      <c r="G16" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="13">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>100</v>
       </c>
       <c r="C17" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E17" s="1">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F17" s="1">
         <v>88</v>
       </c>
       <c r="G17" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="H17" s="13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1">
         <v>95</v>
       </c>
       <c r="C18" s="2">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D18" s="1">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E18" s="1">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F18" s="1">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G18" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="H18" s="13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B19" s="1">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C19" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D19" s="1">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="E19" s="1">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F19" s="1">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="G19" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="H19" s="13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C20" s="2">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D20" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E20" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F20" s="1">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G20" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="H20" s="13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1">
         <v>100</v>
       </c>
       <c r="C21" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D21" s="1">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E21" s="1">
         <v>69</v>
       </c>
       <c r="F21" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G21" s="1">
+        <v>74</v>
+      </c>
+      <c r="H21" s="13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="6">
+        <v>75</v>
+      </c>
+      <c r="C22" s="2">
+        <v>85</v>
+      </c>
+      <c r="D22" s="1">
+        <v>90</v>
+      </c>
+      <c r="E22" s="1">
+        <v>70</v>
+      </c>
+      <c r="F22" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="1">
-        <v>100</v>
-      </c>
-      <c r="C22" s="2">
-        <v>80</v>
-      </c>
-      <c r="D22" s="1">
-        <v>75</v>
-      </c>
-      <c r="E22" s="1">
-        <v>71</v>
-      </c>
-      <c r="F22" s="1">
-        <v>72</v>
-      </c>
       <c r="G22" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="H22" s="13">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1">
         <v>100</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="2">
+        <v>87</v>
+      </c>
+      <c r="D23" s="1">
+        <v>100</v>
+      </c>
+      <c r="E23" s="1">
+        <v>79</v>
+      </c>
+      <c r="F23" s="1">
+        <v>72</v>
+      </c>
+      <c r="G23" s="1">
+        <v>96</v>
+      </c>
+      <c r="H23" s="13">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1">
+        <v>85</v>
+      </c>
+      <c r="C24" s="2">
+        <v>90</v>
+      </c>
+      <c r="D24" s="1">
+        <v>84</v>
+      </c>
+      <c r="E24" s="1">
+        <v>64</v>
+      </c>
+      <c r="F24" s="1">
+        <v>92</v>
+      </c>
+      <c r="G24" s="1">
+        <v>92</v>
+      </c>
+      <c r="H24" s="13">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1">
+        <v>97</v>
+      </c>
+      <c r="C25" s="2">
         <v>82</v>
-      </c>
-      <c r="D23" s="1">
-        <v>98</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="1">
-        <v>84</v>
-      </c>
-      <c r="G23" s="1">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="1">
-        <v>100</v>
-      </c>
-      <c r="C24" s="2">
-        <v>85</v>
-      </c>
-      <c r="D24" s="1">
-        <v>82</v>
-      </c>
-      <c r="E24" s="1">
-        <v>84</v>
-      </c>
-      <c r="F24" s="1">
-        <v>74</v>
-      </c>
-      <c r="G24" s="1">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="1">
-        <v>95</v>
-      </c>
-      <c r="C25" s="2">
-        <v>95</v>
       </c>
       <c r="D25" s="1">
         <v>98</v>
       </c>
       <c r="E25" s="1">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F25" s="1">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G25" s="1">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="H25" s="13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
@@ -2913,823 +3026,943 @@
       <c r="G26" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" s="13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1">
+        <v>95</v>
+      </c>
+      <c r="C27" s="2">
+        <v>89</v>
+      </c>
+      <c r="D27" s="1">
+        <v>90</v>
+      </c>
+      <c r="E27" s="1">
+        <v>94</v>
+      </c>
+      <c r="F27" s="1">
+        <v>92</v>
+      </c>
+      <c r="G27" s="1">
+        <v>92</v>
+      </c>
+      <c r="H27" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28" s="2">
+        <v>92</v>
+      </c>
+      <c r="D28" s="1">
+        <v>100</v>
+      </c>
+      <c r="E28" s="1">
+        <v>83</v>
+      </c>
+      <c r="F28" s="1">
+        <v>54</v>
+      </c>
+      <c r="G28" s="1">
+        <v>92</v>
+      </c>
+      <c r="H28" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B29" s="1">
         <v>100</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C29" s="2">
         <v>100</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D29" s="1">
         <v>97</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E29" s="1">
         <v>82</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F29" s="1">
         <v>88</v>
-      </c>
-      <c r="G27" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="1">
-        <v>92</v>
-      </c>
-      <c r="C28" s="2">
-        <v>76</v>
-      </c>
-      <c r="D28" s="1">
-        <v>61</v>
-      </c>
-      <c r="E28" s="1">
-        <v>78</v>
-      </c>
-      <c r="F28" s="1">
-        <v>84</v>
-      </c>
-      <c r="G28" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="1">
-        <v>94</v>
-      </c>
-      <c r="C29" s="2">
-        <v>72</v>
-      </c>
-      <c r="D29" s="1">
-        <v>87</v>
-      </c>
-      <c r="E29" s="1">
-        <v>75</v>
-      </c>
-      <c r="F29" s="1">
-        <v>66</v>
       </c>
       <c r="G29" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B30" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C30" s="2">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D30" s="1">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E30" s="1">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F30" s="1">
+        <v>66</v>
+      </c>
+      <c r="G30" s="1">
+        <v>84</v>
+      </c>
+      <c r="H30" s="13">
         <v>86</v>
       </c>
-      <c r="G30" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="3" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B31" s="1">
         <v>100</v>
       </c>
       <c r="C31" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D31" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E31" s="1">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F31" s="1">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G31" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="H31" s="13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="3" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B32" s="1">
         <v>100</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>75</v>
+      <c r="C32" s="7">
+        <v>82</v>
       </c>
       <c r="D32" s="1">
-        <v>82</v>
-      </c>
-      <c r="E32" s="1">
-        <v>76</v>
+        <v>98</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="F32" s="1">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G32" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="H32" s="13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="3" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B33" s="1">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C33" s="2">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="D33" s="1">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E33" s="1">
         <v>80</v>
       </c>
       <c r="F33" s="1">
+        <v>58</v>
+      </c>
+      <c r="G33" s="1">
+        <v>78</v>
+      </c>
+      <c r="H33" s="13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="1">
+        <v>94</v>
+      </c>
+      <c r="C34" s="2">
+        <v>70</v>
+      </c>
+      <c r="D34" s="1">
+        <v>74</v>
+      </c>
+      <c r="E34" s="1">
+        <v>62</v>
+      </c>
+      <c r="F34" s="1">
+        <v>82</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="1">
+        <v>95</v>
+      </c>
+      <c r="C35" s="2">
+        <v>95</v>
+      </c>
+      <c r="D35" s="1">
+        <v>98</v>
+      </c>
+      <c r="E35" s="1">
+        <v>79</v>
+      </c>
+      <c r="F35" s="1">
         <v>64</v>
       </c>
-      <c r="G33" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="1">
-        <v>85</v>
-      </c>
-      <c r="C34" s="2">
-        <v>91</v>
-      </c>
-      <c r="D34" s="1">
-        <v>82</v>
-      </c>
-      <c r="E34" s="1">
-        <v>78</v>
-      </c>
-      <c r="F34" s="1">
+      <c r="G35" s="1">
+        <v>86</v>
+      </c>
+      <c r="H35" s="13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="1">
+        <v>80</v>
+      </c>
+      <c r="C36" s="2">
         <v>92</v>
       </c>
-      <c r="G34" s="1">
+      <c r="D36" s="1">
+        <v>90</v>
+      </c>
+      <c r="E36" s="1">
+        <v>66</v>
+      </c>
+      <c r="F36" s="1">
         <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="1">
-        <v>92</v>
-      </c>
-      <c r="C35" s="2">
-        <v>94</v>
-      </c>
-      <c r="D35" s="1">
-        <v>100</v>
-      </c>
-      <c r="E35" s="1">
-        <v>88</v>
-      </c>
-      <c r="F35" s="1">
-        <v>84</v>
-      </c>
-      <c r="G35" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="1">
-        <v>90</v>
-      </c>
-      <c r="C36" s="2">
-        <v>82</v>
-      </c>
-      <c r="D36" s="1">
-        <v>95</v>
-      </c>
-      <c r="E36" s="1">
-        <v>78</v>
-      </c>
-      <c r="F36" s="1">
-        <v>82</v>
       </c>
       <c r="G36" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" s="13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B37" s="1">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C37" s="2">
+        <v>74</v>
+      </c>
+      <c r="D37" s="1">
+        <v>86</v>
+      </c>
+      <c r="E37" s="1">
+        <v>77</v>
+      </c>
+      <c r="F37" s="1">
+        <v>56</v>
+      </c>
+      <c r="G37" s="1">
+        <v>68</v>
+      </c>
+      <c r="H37" s="13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="6">
+        <v>70</v>
+      </c>
+      <c r="C38" s="2">
+        <v>72</v>
+      </c>
+      <c r="D38" s="1">
+        <v>81</v>
+      </c>
+      <c r="E38" s="1">
         <v>73</v>
       </c>
-      <c r="D37" s="1">
-        <v>90</v>
-      </c>
-      <c r="E37" s="1">
-        <v>69</v>
-      </c>
-      <c r="F37" s="1">
-        <v>82</v>
-      </c>
-      <c r="G37" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="1">
-        <v>80</v>
-      </c>
-      <c r="C38" s="2">
-        <v>92</v>
-      </c>
-      <c r="D38" s="1">
-        <v>90</v>
-      </c>
-      <c r="E38" s="1">
-        <v>66</v>
-      </c>
       <c r="F38" s="1">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G38" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="H38" s="13">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="3" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="B39" s="1">
         <v>95</v>
       </c>
       <c r="C39" s="2">
-        <v>90</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
+      </c>
+      <c r="D39" s="1">
+        <v>95</v>
       </c>
       <c r="E39" s="1">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F39" s="1">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G39" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="H39" s="13">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="3" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B40" s="1">
         <v>100</v>
       </c>
       <c r="C40" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D40" s="1">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E40" s="1">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F40" s="1">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G40" s="1">
+        <v>52</v>
+      </c>
+      <c r="H40" s="13">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="1">
+        <v>95</v>
+      </c>
+      <c r="C41" s="2">
+        <v>93</v>
+      </c>
+      <c r="D41" s="1">
+        <v>90</v>
+      </c>
+      <c r="E41" s="1">
+        <v>82</v>
+      </c>
+      <c r="F41" s="1">
+        <v>74</v>
+      </c>
+      <c r="G41" s="1">
+        <v>90</v>
+      </c>
+      <c r="H41" s="13">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="1">
-        <v>90</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="1">
-        <v>84</v>
-      </c>
-      <c r="E41" s="1">
+    <row r="42" spans="1:8">
+      <c r="A42" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42" s="1">
+        <v>78</v>
+      </c>
+      <c r="G42" s="1">
+        <v>74</v>
+      </c>
+      <c r="H42" s="13">
         <v>80</v>
       </c>
-      <c r="F41" s="1">
-        <v>94</v>
-      </c>
-      <c r="G41" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="1">
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="1">
         <v>80</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C43" s="2">
+        <v>67</v>
+      </c>
+      <c r="D43" s="1">
+        <v>74</v>
+      </c>
+      <c r="E43" s="1">
+        <v>57</v>
+      </c>
+      <c r="F43" s="1">
+        <v>64</v>
+      </c>
+      <c r="G43" s="1">
+        <v>46</v>
+      </c>
+      <c r="H43" s="13">
         <v>80</v>
       </c>
-      <c r="D42" s="1">
-        <v>85</v>
-      </c>
-      <c r="E42" s="1">
-        <v>65</v>
-      </c>
-      <c r="F42" s="1">
-        <v>62</v>
-      </c>
-      <c r="G42" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="1">
-        <v>94</v>
-      </c>
-      <c r="C43" s="2">
-        <v>91</v>
-      </c>
-      <c r="D43" s="1">
-        <v>87</v>
-      </c>
-      <c r="E43" s="1">
-        <v>80</v>
-      </c>
-      <c r="F43" s="1">
-        <v>58</v>
-      </c>
-      <c r="G43" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B44" s="1">
         <v>100</v>
       </c>
       <c r="C44" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D44" s="1">
         <v>95</v>
       </c>
       <c r="E44" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F44" s="1">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G44" s="1">
+        <v>88</v>
+      </c>
+      <c r="H44" s="13">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="1">
+        <v>95</v>
+      </c>
+      <c r="C45" s="2">
+        <v>79</v>
+      </c>
+      <c r="D45" s="1">
+        <v>92</v>
+      </c>
+      <c r="E45" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
       <c r="F45" s="1">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G45" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45" s="13">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1">
+        <v>85</v>
+      </c>
+      <c r="H46" s="12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="1">
+        <v>95</v>
+      </c>
+      <c r="C47" s="2">
+        <v>90</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="1">
+        <v>76</v>
+      </c>
+      <c r="F47" s="1">
+        <v>76</v>
+      </c>
+      <c r="G47" s="1">
+        <v>80</v>
+      </c>
+      <c r="H47" s="13">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="1">
+        <v>80</v>
+      </c>
+      <c r="C48" s="2">
+        <v>80</v>
+      </c>
+      <c r="D48" s="1">
+        <v>85</v>
+      </c>
+      <c r="E48" s="1">
+        <v>65</v>
+      </c>
+      <c r="F48" s="1">
+        <v>62</v>
+      </c>
+      <c r="G48" s="1">
+        <v>78</v>
+      </c>
+      <c r="H48" s="13">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="1">
         <v>100</v>
       </c>
-      <c r="C46" s="2">
-        <v>80</v>
-      </c>
-      <c r="D46" s="1">
-        <v>98</v>
-      </c>
-      <c r="E46" s="1">
-        <v>69</v>
-      </c>
-      <c r="F46" s="1">
+      <c r="C49" s="2">
+        <v>87</v>
+      </c>
+      <c r="D49" s="1">
+        <v>94</v>
+      </c>
+      <c r="E49" s="1">
+        <v>83</v>
+      </c>
+      <c r="F49" s="1">
+        <v>84</v>
+      </c>
+      <c r="G49" s="1">
+        <v>92</v>
+      </c>
+      <c r="H49" s="13">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="1">
+        <v>100</v>
+      </c>
+      <c r="C50" s="2">
+        <v>85</v>
+      </c>
+      <c r="D50" s="1">
+        <v>82</v>
+      </c>
+      <c r="E50" s="1">
+        <v>84</v>
+      </c>
+      <c r="F50" s="1">
         <v>74</v>
       </c>
-      <c r="G46" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47" s="1">
-        <v>68</v>
-      </c>
-      <c r="G47" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="1">
-        <v>95</v>
-      </c>
-      <c r="C48" s="2">
-        <v>79</v>
-      </c>
-      <c r="D48" s="1">
-        <v>92</v>
-      </c>
-      <c r="E48" s="1">
+      <c r="G50" s="1">
+        <v>86</v>
+      </c>
+      <c r="H50" s="13">
         <v>76</v>
       </c>
-      <c r="F48" s="1">
-        <v>66</v>
-      </c>
-      <c r="G48" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="1">
-        <v>97</v>
-      </c>
-      <c r="C49" s="2">
-        <v>92</v>
-      </c>
-      <c r="D49" s="1">
-        <v>87</v>
-      </c>
-      <c r="E49" s="1">
-        <v>74</v>
-      </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="6">
-        <v>70</v>
-      </c>
-      <c r="C50" s="2">
-        <v>72</v>
-      </c>
-      <c r="D50" s="1">
-        <v>81</v>
-      </c>
-      <c r="E50" s="1">
-        <v>73</v>
-      </c>
-      <c r="F50" s="1">
-        <v>68</v>
-      </c>
-      <c r="G50" s="1">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B51"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="1">
+        <v>90</v>
+      </c>
       <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
+      <c r="D51" s="1">
+        <v>93</v>
+      </c>
+      <c r="E51" s="1">
+        <v>61</v>
+      </c>
       <c r="F51" s="1">
         <v>58</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="1">
+        <v>64</v>
+      </c>
+      <c r="H51" s="13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="1">
+        <v>95</v>
+      </c>
+      <c r="C52" s="2">
+        <v>81</v>
+      </c>
+      <c r="D52" s="1">
+        <v>87</v>
+      </c>
+      <c r="E52" s="1">
+        <v>63</v>
+      </c>
+      <c r="F52" s="1">
+        <v>82</v>
+      </c>
+      <c r="G52" s="1">
+        <v>62</v>
+      </c>
+      <c r="H52" s="13">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="1">
+        <v>90</v>
+      </c>
+      <c r="C53" s="2">
+        <v>69</v>
+      </c>
+      <c r="D53" s="1">
+        <v>97</v>
+      </c>
+      <c r="E53" s="1">
+        <v>80</v>
+      </c>
+      <c r="F53" s="1">
+        <v>64</v>
+      </c>
+      <c r="G53" s="1">
+        <v>82</v>
+      </c>
+      <c r="H53" s="13">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54"/>
+      <c r="C54" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="1">
+        <v>63</v>
+      </c>
+      <c r="E54" s="1">
+        <v>60</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G54" s="1">
+        <v>60</v>
+      </c>
+      <c r="H54" s="13">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55" s="1">
+        <v>58</v>
+      </c>
+      <c r="G55">
         <v>70</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B52" s="1">
-        <v>94</v>
-      </c>
-      <c r="C52" s="2">
-        <v>86</v>
-      </c>
-      <c r="D52" s="1">
-        <v>94</v>
-      </c>
-      <c r="E52" s="1">
+      <c r="H55" s="12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75">
+      <c r="A56" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="1">
+        <v>97</v>
+      </c>
+      <c r="C56" s="2">
+        <v>92</v>
+      </c>
+      <c r="D56" s="1">
+        <v>87</v>
+      </c>
+      <c r="E56" s="1">
+        <v>74</v>
+      </c>
+      <c r="F56" s="8"/>
+      <c r="G56" s="1">
+        <v>74</v>
+      </c>
+      <c r="H56" s="13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" s="1">
+        <v>90</v>
+      </c>
+      <c r="C57" s="2">
+        <v>82</v>
+      </c>
+      <c r="D57" s="1">
+        <v>95</v>
+      </c>
+      <c r="E57" s="1">
+        <v>78</v>
+      </c>
+      <c r="F57" s="1">
+        <v>82</v>
+      </c>
+      <c r="G57" s="1">
+        <v>80</v>
+      </c>
+      <c r="H57" s="13">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="1">
+        <v>100</v>
+      </c>
+      <c r="C58" s="2">
+        <v>80</v>
+      </c>
+      <c r="D58" s="1">
+        <v>95</v>
+      </c>
+      <c r="E58" s="1">
+        <v>70</v>
+      </c>
+      <c r="F58" s="1">
+        <v>82</v>
+      </c>
+      <c r="G58" s="1">
+        <v>76</v>
+      </c>
+      <c r="H58" s="13">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59" s="1">
+        <v>80</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H59" s="13">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F52" s="1">
-        <v>86</v>
-      </c>
-      <c r="G52" s="1">
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+      <c r="G60" s="1">
+        <v>74</v>
+      </c>
+      <c r="H60" s="13">
         <v>55</v>
       </c>
-      <c r="B53" s="1">
-        <v>90</v>
-      </c>
-      <c r="C53" s="2">
-        <v>74</v>
-      </c>
-      <c r="D53" s="1">
-        <v>86</v>
-      </c>
-      <c r="E53" s="1">
-        <v>77</v>
-      </c>
-      <c r="F53" s="1">
-        <v>56</v>
-      </c>
-      <c r="G53" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="1">
+        <v>97</v>
+      </c>
+      <c r="C61" s="2">
+        <v>95</v>
+      </c>
+      <c r="D61" s="1">
+        <v>80</v>
+      </c>
+      <c r="E61" s="1">
+        <v>75</v>
+      </c>
+      <c r="F61" s="1">
+        <v>64</v>
+      </c>
+      <c r="G61" s="1">
+        <v>30</v>
+      </c>
+      <c r="H61" s="13">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" hidden="1">
+      <c r="A62" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="6">
         <v>65</v>
       </c>
-      <c r="B54" s="1">
-        <v>90</v>
-      </c>
-      <c r="C54"/>
-      <c r="D54" s="1">
-        <v>93</v>
-      </c>
-      <c r="E54" s="1">
+      <c r="C62" s="2">
+        <v>60</v>
+      </c>
+      <c r="D62" s="1">
+        <v>81</v>
+      </c>
+      <c r="E62" s="1">
         <v>61</v>
       </c>
-      <c r="F54" s="1">
-        <v>58</v>
-      </c>
-      <c r="G54" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B55" s="1">
-        <v>95</v>
-      </c>
-      <c r="C55" s="2">
-        <v>81</v>
-      </c>
-      <c r="D55" s="1">
-        <v>87</v>
-      </c>
-      <c r="E55" s="1">
-        <v>63</v>
-      </c>
-      <c r="F55" s="1">
-        <v>82</v>
-      </c>
-      <c r="G55" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B56"/>
-      <c r="C56" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D56" s="1">
-        <v>63</v>
-      </c>
-      <c r="E56" s="1">
-        <v>60</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G56" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="1">
-        <v>100</v>
-      </c>
-      <c r="C57" s="2">
-        <v>90</v>
-      </c>
-      <c r="D57" s="1">
-        <v>82</v>
-      </c>
-      <c r="E57" s="1">
-        <v>71</v>
-      </c>
-      <c r="F57" s="1">
-        <v>80</v>
-      </c>
-      <c r="G57" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="1">
-        <v>80</v>
-      </c>
-      <c r="C58" s="2">
-        <v>67</v>
-      </c>
-      <c r="D58" s="1">
-        <v>74</v>
-      </c>
-      <c r="E58" s="1">
-        <v>57</v>
-      </c>
-      <c r="F58" s="1">
-        <v>64</v>
-      </c>
-      <c r="G58" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" s="1">
-        <v>97</v>
-      </c>
-      <c r="C59" s="2">
-        <v>95</v>
-      </c>
-      <c r="D59" s="1">
-        <v>80</v>
-      </c>
-      <c r="E59" s="1">
-        <v>75</v>
-      </c>
-      <c r="F59" s="1">
-        <v>64</v>
-      </c>
-      <c r="G59" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="1">
-        <v>94</v>
-      </c>
-      <c r="C60" s="2">
-        <v>70</v>
-      </c>
-      <c r="D60" s="1">
-        <v>74</v>
-      </c>
-      <c r="E60" s="1">
-        <v>62</v>
-      </c>
-      <c r="F60" s="1">
-        <v>82</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61" s="1">
-        <v>80</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B62" s="1">
-        <v>100</v>
-      </c>
-      <c r="C62" s="2">
-        <v>84</v>
-      </c>
-      <c r="D62" s="1">
-        <v>93</v>
-      </c>
-      <c r="E62" s="1">
-        <v>88</v>
-      </c>
       <c r="F62" s="1">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" s="6">
-        <v>65</v>
+        <v>20</v>
+      </c>
+      <c r="B63" s="1">
+        <v>85</v>
       </c>
       <c r="C63" s="2">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1">
+        <v>98</v>
+      </c>
+      <c r="E63" s="1">
+        <v>88</v>
+      </c>
+      <c r="F63" s="1">
+        <v>90</v>
+      </c>
+      <c r="G63" s="1">
+        <v>90</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" s="1">
+        <v>100</v>
+      </c>
+      <c r="C64" s="2">
         <v>81</v>
       </c>
-      <c r="E63" s="1">
-        <v>61</v>
-      </c>
-      <c r="F63" s="1">
-        <v>32</v>
-      </c>
-      <c r="G63" s="10" t="s">
+      <c r="D64" s="1">
+        <v>90</v>
+      </c>
+      <c r="E64" s="1">
+        <v>75</v>
+      </c>
+      <c r="F64" s="1">
+        <v>72</v>
+      </c>
+      <c r="G64" s="1">
+        <v>80</v>
+      </c>
+      <c r="H64" s="12" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G63">
-    <sortCondition descending="1" ref="G2:G63"/>
+  <sortState ref="A2:H64">
+    <sortCondition descending="1" ref="H2:H64"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
